--- a/plots/Data Analsyis/CrimeWeather Analysis.xlsx
+++ b/plots/Data Analsyis/CrimeWeather Analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mryet\Desktop\Project_2\plots\Data Analsyis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703CA08-4FD9-4E1C-8B00-1903F871FA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7BBEB6-BBA2-455D-BFFA-0DE9C1B83AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="crimebyweather" sheetId="1" r:id="rId1"/>
-    <sheet name="weatherbycity" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId1"/>
+    <sheet name="crimebyweather" sheetId="1" r:id="rId2"/>
+    <sheet name="weatherbycity" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
   <si>
     <t>City</t>
   </si>
@@ -80,6 +81,21 @@
   </si>
   <si>
     <t>Weather</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
@@ -563,10 +579,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -660,30 +678,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Crime</a:t>
+              <a:t>Distribution of Crime</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Weather Ratio</a:t>
+              <a:t> and Weather Counts</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(Ratio is Calculated for Each City)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -719,8 +722,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -737,111 +741,134 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>crimebyweather!$I$4:$I$32</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>crimebyweather!$J$4:$K$32</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>Clear atl</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mostly Cloudy atl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Overcast atl</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Partly Cloudy atl</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Rain atl</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Snow atl</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Clear bos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mostly Cloudy bos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Overcast bos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Partly Cloudy bos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Rain bos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Snow bos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Clear chi</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Mostly Cloudy chi</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Overcast chi</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Partly Cloudy chi</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Rain chi</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Snow chi</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Clear den</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Mostly Cloudy den</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Overcast den</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Partly Cloudy den</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Rain den</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Snow den</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Clear los</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Mostly Cloudy los</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Overcast los</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Partly Cloudy los</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Rain los</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Atlanta</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Boston</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Chicago</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Denver</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Los Angeles</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -939,10 +966,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFC0-4850-A60A-5B18A3C6824E}"/>
+              <c16:uniqueId val="{00000000-7444-4743-B9C3-810DA569E2C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -961,111 +987,130 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>crimebyweather!$I$4:$I$32</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>crimebyweather!$J$4:$K$32</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>Clear atl</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mostly Cloudy atl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Overcast atl</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Partly Cloudy atl</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Rain atl</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Snow atl</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Clear bos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mostly Cloudy bos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Overcast bos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Partly Cloudy bos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Rain bos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Snow bos</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Clear chi</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Mostly Cloudy chi</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Overcast chi</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Partly Cloudy chi</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Rain chi</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Snow chi</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Clear den</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Mostly Cloudy den</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Overcast den</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Partly Cloudy den</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Rain den</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Snow den</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Clear los</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Mostly Cloudy los</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Overcast los</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Partly Cloudy los</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Rain los</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Snow</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Clear</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Mostly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Overcast</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Partly Cloudy</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Rain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Atlanta</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Boston</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Chicago</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Denver</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Los Angeles</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1163,10 +1208,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFC0-4850-A60A-5B18A3C6824E}"/>
+              <c16:uniqueId val="{00000001-7444-4743-B9C3-810DA569E2C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,10 +1222,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="301108112"/>
         <c:axId val="301105872"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="301108112"/>
         <c:scaling>
@@ -1364,11 +1408,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1928,31 +1967,34 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D69C3127-D993-441C-B5ED-431CB38DBB57}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664140" cy="6287055"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF33119-9345-4909-B353-4A40027EADCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA3240E-87D5-47BB-B0B8-F292E5427996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1965,7 +2007,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2266,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2278,7 +2320,7 @@
     <col min="9" max="9" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C2" s="1">
         <f>SUM(C4:C32)</f>
         <v>2749661</v>
@@ -2298,7 +2340,7 @@
         <v>5.0000000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2400,15 @@
         <f>B4&amp;" "&amp;LEFT(A4,3)</f>
         <v>Clear atl</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="str">
+        <f>B4</f>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2442,13 @@
         <f t="shared" ref="I5:I32" si="4">B5&amp;" "&amp;LEFT(A5,3)</f>
         <v>Mostly Cloudy atl</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="3"/>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K32" si="5">B5</f>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2482,13 @@
         <f t="shared" si="4"/>
         <v>Overcast atl</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="3"/>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>Overcast</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2463,8 +2522,13 @@
         <f t="shared" si="4"/>
         <v>Partly Cloudy atl</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="3"/>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2498,8 +2562,13 @@
         <f t="shared" si="4"/>
         <v>Rain atl</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="3"/>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>Rain</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2533,8 +2602,13 @@
         <f t="shared" si="4"/>
         <v>Snow atl</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="3"/>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>Snow</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2568,8 +2642,15 @@
         <f t="shared" si="4"/>
         <v>Clear bos</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2603,8 +2684,13 @@
         <f t="shared" si="4"/>
         <v>Mostly Cloudy bos</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="3"/>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2638,8 +2724,13 @@
         <f t="shared" si="4"/>
         <v>Overcast bos</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="3"/>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>Overcast</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2673,8 +2764,13 @@
         <f t="shared" si="4"/>
         <v>Partly Cloudy bos</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="3"/>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2708,8 +2804,13 @@
         <f t="shared" si="4"/>
         <v>Rain bos</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="3"/>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>Rain</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2743,8 +2844,13 @@
         <f t="shared" si="4"/>
         <v>Snow bos</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="3"/>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>Snow</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2778,8 +2884,15 @@
         <f t="shared" si="4"/>
         <v>Clear chi</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2813,8 +2926,13 @@
         <f t="shared" si="4"/>
         <v>Mostly Cloudy chi</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="3"/>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2848,8 +2966,13 @@
         <f t="shared" si="4"/>
         <v>Overcast chi</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="3"/>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>Overcast</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2883,8 +3006,13 @@
         <f t="shared" si="4"/>
         <v>Partly Cloudy chi</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="3"/>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2918,8 +3046,13 @@
         <f t="shared" si="4"/>
         <v>Rain chi</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="3"/>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>Rain</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2953,8 +3086,13 @@
         <f t="shared" si="4"/>
         <v>Snow chi</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="3"/>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>Snow</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2988,8 +3126,15 @@
         <f t="shared" si="4"/>
         <v>Clear den</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3023,8 +3168,13 @@
         <f t="shared" si="4"/>
         <v>Mostly Cloudy den</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" s="4"/>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3058,8 +3208,13 @@
         <f t="shared" si="4"/>
         <v>Overcast den</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="4"/>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>Overcast</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3093,8 +3248,13 @@
         <f t="shared" si="4"/>
         <v>Partly Cloudy den</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="4"/>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3128,8 +3288,13 @@
         <f t="shared" si="4"/>
         <v>Rain den</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="4"/>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>Rain</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3163,8 +3328,13 @@
         <f t="shared" si="4"/>
         <v>Snow den</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="4"/>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>Snow</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3198,8 +3368,15 @@
         <f t="shared" si="4"/>
         <v>Clear los</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>Clear</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3233,8 +3410,13 @@
         <f t="shared" si="4"/>
         <v>Mostly Cloudy los</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="3"/>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>Mostly Cloudy</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3268,8 +3450,13 @@
         <f t="shared" si="4"/>
         <v>Overcast los</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="3"/>
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>Overcast</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3303,8 +3490,13 @@
         <f t="shared" si="4"/>
         <v>Partly Cloudy los</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="3"/>
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>Partly Cloudy</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3337,6 +3529,11 @@
       <c r="I32" t="str">
         <f t="shared" si="4"/>
         <v>Rain los</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>Rain</v>
       </c>
     </row>
   </sheetData>
@@ -3344,8 +3541,14 @@
     <sortCondition ref="A4:A32"/>
     <sortCondition ref="B4:B32"/>
   </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="J28:J32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
